--- a/Author_birthplace_with_geo_data.xlsx
+++ b/Author_birthplace_with_geo_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,12 +346,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,12 +649,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3828125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1245,6 +1248,12 @@
       <c r="C35" t="s">
         <v>80</v>
       </c>
+      <c r="D35" s="3">
+        <v>34.250832330000001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>36.0916663</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
